--- a/TrueFalse/Features.xlsx
+++ b/TrueFalse/Features.xlsx
@@ -19,610 +19,610 @@
     <t>Часть речи: глагол</t>
   </si>
   <si>
+    <t>Коэффициент опредмеченности действия (кол. глаголов / кол. существительных)</t>
+  </si>
+  <si>
+    <t>Сем. роль: объект</t>
+  </si>
+  <si>
+    <t>Словарь: Лексика положительной рациональной оценки и ментальных действий</t>
+  </si>
+  <si>
+    <t>Сем. роль: адресат</t>
+  </si>
+  <si>
+    <t>Число предложений</t>
+  </si>
+  <si>
+    <t>Число уникальных слов</t>
+  </si>
+  <si>
+    <t>Число символов</t>
+  </si>
+  <si>
+    <t>Часть речи: местоимение-существительное</t>
+  </si>
+  <si>
+    <t>Часть речи: существительное</t>
+  </si>
+  <si>
+    <t>Сем. связь: OBJ</t>
+  </si>
+  <si>
+    <t>Число слов</t>
+  </si>
+  <si>
+    <t>Коэффициент Трейгера</t>
+  </si>
+  <si>
+    <t>Доля местоимений 3 лица</t>
+  </si>
+  <si>
+    <t>Часть речи: прилагательное</t>
+  </si>
+  <si>
+    <t>Сем. роль: предикат</t>
+  </si>
+  <si>
+    <t>Доля местоимений 1 лица ед. числа</t>
+  </si>
+  <si>
+    <t>Тональность слов (по округленным значениям)</t>
+  </si>
+  <si>
+    <t>Сем. роль: субъект</t>
+  </si>
+  <si>
+    <t>Максимальная глубина синтаксического дерева</t>
+  </si>
+  <si>
+    <t>Доля инфинитивов</t>
+  </si>
+  <si>
+    <t>Сем. роль: транзитив</t>
+  </si>
+  <si>
+    <t>Число знаков препинания</t>
+  </si>
+  <si>
+    <t>Сем. связь: POS</t>
+  </si>
+  <si>
+    <t>Сем. связь: DES</t>
+  </si>
+  <si>
+    <t>Сем. связь: DIR</t>
+  </si>
+  <si>
+    <t>Сем. роль: каузатив</t>
+  </si>
+  <si>
+    <t>Тональность слов (по усредненным значениям)</t>
+  </si>
+  <si>
+    <t>Словарь: Лексика положительной эмоциональной оценки</t>
+  </si>
+  <si>
+    <t>Словарь: Лексика разрушения и насилия</t>
+  </si>
+  <si>
+    <t>Сем. роль: посессив</t>
+  </si>
+  <si>
+    <t>Сем. роль: объектив</t>
+  </si>
+  <si>
     <t>Средняя длина слов (в количестве символов)</t>
   </si>
   <si>
-    <t>Часть речи: существительное</t>
+    <t>Словарь: Безысключительная и усилительная лексика</t>
+  </si>
+  <si>
+    <t>Сем. связь: TAR</t>
+  </si>
+  <si>
+    <t>Словарь: Лексика мотивации, деятельности и напряжения</t>
+  </si>
+  <si>
+    <t>Сем. роль: делибератив</t>
+  </si>
+  <si>
+    <t>Число клауз</t>
+  </si>
+  <si>
+    <t>Сем. роль: дестинатив</t>
+  </si>
+  <si>
+    <t>Часть речи: местоимение-прилагательное</t>
+  </si>
+  <si>
+    <t>Число уникальных слов / Число слов</t>
+  </si>
+  <si>
+    <t>Доля местоимений 1 лица мн. числа</t>
+  </si>
+  <si>
+    <t>Сем. связь: LOC</t>
+  </si>
+  <si>
+    <t>Доля глаголов прошедшего времени</t>
+  </si>
+  <si>
+    <t>Доля местоимений 1 лица</t>
+  </si>
+  <si>
+    <t>Часть речи: предлог</t>
+  </si>
+  <si>
+    <t>Часть речи: числительное-прилагательное</t>
+  </si>
+  <si>
+    <t>Сем. роль: директив</t>
+  </si>
+  <si>
+    <t>Словарь: Тематическая_ЖКХ</t>
+  </si>
+  <si>
+    <t>Сем. роль: положение_соц_завис</t>
+  </si>
+  <si>
+    <t>Число восклицательных знаков / Число предложений</t>
+  </si>
+  <si>
+    <t>Сем. роль: дистрибутив</t>
+  </si>
+  <si>
+    <t>Сем. роль: абстинатив</t>
+  </si>
+  <si>
+    <t>Сем. роль: оцениваемое_действие</t>
+  </si>
+  <si>
+    <t>Сем. роль: донор</t>
+  </si>
+  <si>
+    <t>Сем. связь: ADR</t>
+  </si>
+  <si>
+    <t>Словарь: Компьютерный жаргон</t>
+  </si>
+  <si>
+    <t>Часть речи: числительное</t>
+  </si>
+  <si>
+    <t>Словарь: Тематическая_Экономика</t>
+  </si>
+  <si>
+    <t>Сем. роль: локатив</t>
+  </si>
+  <si>
+    <t>Словарь: Тематическая_Здравоохранение</t>
+  </si>
+  <si>
+    <t>Сем. роль: медиатив</t>
+  </si>
+  <si>
+    <t>Сем. роль: темпоратив</t>
+  </si>
+  <si>
+    <t>Сем. связь: DLB</t>
+  </si>
+  <si>
+    <t>Средняя глубина синтаксического дерева</t>
+  </si>
+  <si>
+    <t>Сем. роль: предмет_обмена</t>
+  </si>
+  <si>
+    <t>Сем. роль: генератив</t>
+  </si>
+  <si>
+    <t>Сем. связь: MED</t>
+  </si>
+  <si>
+    <t>Сем. роль: авторизатор</t>
+  </si>
+  <si>
+    <t>Сем. роль: деструктив</t>
+  </si>
+  <si>
+    <t>Сем. связь: TRA</t>
+  </si>
+  <si>
+    <t>Часть речи: частица</t>
   </si>
   <si>
     <t>Число отрицательных приставок и форм (не,ни,бес,без) / Число слов</t>
   </si>
   <si>
-    <t>Часть речи: местоимение-существительное</t>
-  </si>
-  <si>
-    <t>Коэффициент опредмеченности действия (кол. глаголов / кол. существительных)</t>
-  </si>
-  <si>
-    <t>Доля местоимений 3 лица</t>
-  </si>
-  <si>
-    <t>Часть речи: частица</t>
+    <t>Причастия + деепричастия / Число предложений</t>
+  </si>
+  <si>
+    <t>Сем. связь: DIS</t>
+  </si>
+  <si>
+    <t>Сем. роль: эстиматив</t>
+  </si>
+  <si>
+    <t>Сем. связь: GEN</t>
+  </si>
+  <si>
+    <t>Словарь: Молодежный жаргон</t>
   </si>
   <si>
     <t>Часть речи: союз</t>
   </si>
   <si>
-    <t>Доля местоимений 1 лица</t>
-  </si>
-  <si>
-    <t>Тональность слов (по округленным значениям)</t>
-  </si>
-  <si>
-    <t>Словарь: Лексика положительной рациональной оценки и ментальных действий</t>
-  </si>
-  <si>
-    <t>Словарь: Лексика мотивации, деятельности и напряжения</t>
-  </si>
-  <si>
-    <t>Тональность слов (по усредненным значениям)</t>
-  </si>
-  <si>
-    <t>Часть речи: прилагательное</t>
-  </si>
-  <si>
-    <t>Доля инфинитивов</t>
-  </si>
-  <si>
-    <t>Число уникальных слов / Число слов</t>
-  </si>
-  <si>
-    <t>Доля глаголов прошедшего времени</t>
-  </si>
-  <si>
-    <t>Максимальная глубина синтаксического дерева</t>
-  </si>
-  <si>
-    <t>Часть речи: предлог</t>
-  </si>
-  <si>
-    <t>Доля местоимений 1 лица ед. числа</t>
-  </si>
-  <si>
-    <t>Коэффициент Трейгера</t>
+    <t>Часть речи: наречие</t>
+  </si>
+  <si>
+    <t>Сем. роль: каузатор</t>
+  </si>
+  <si>
+    <t>Сем. связь: PTN</t>
+  </si>
+  <si>
+    <t>Словарь: Уголовный жаргон</t>
+  </si>
+  <si>
+    <t>Словарь: Тематическая_Протест</t>
+  </si>
+  <si>
+    <t>Словарь: Тематическая_Дети и образование</t>
+  </si>
+  <si>
+    <t>Словарь: Инвективы</t>
+  </si>
+  <si>
+    <t>Словарь: Лексика страдания</t>
+  </si>
+  <si>
+    <t>Сем. роль: действие_в_фаз_модиф</t>
+  </si>
+  <si>
+    <t>Сем. связь: EQ</t>
+  </si>
+  <si>
+    <t>Сем. связь: COM</t>
+  </si>
+  <si>
+    <t>Сем. роль: квалитатив</t>
+  </si>
+  <si>
+    <t>Коэффициент логической связности</t>
+  </si>
+  <si>
+    <t>Доля прописных символов</t>
+  </si>
+  <si>
+    <t>Сем. роль: отпр_пред_соп</t>
+  </si>
+  <si>
+    <t>Сем. роль: каузируемая_ассоциация</t>
+  </si>
+  <si>
+    <t>Сем. роль: субъект_соучаст</t>
+  </si>
+  <si>
+    <t>Сем. роль: аблатив</t>
+  </si>
+  <si>
+    <t>Сем. роль: инструментив</t>
+  </si>
+  <si>
+    <t>Сем. связь: INS</t>
+  </si>
+  <si>
+    <t>Сем. роль: каузат</t>
+  </si>
+  <si>
+    <t>Сем. роль: фабрикатив</t>
+  </si>
+  <si>
+    <t>Сем. роль: отсут_признак</t>
+  </si>
+  <si>
+    <t>Сем. роль: социальная_категория</t>
+  </si>
+  <si>
+    <t>Минимальная глубина синтаксического дерева</t>
+  </si>
+  <si>
+    <t>Часть речи: местоименное наречие</t>
+  </si>
+  <si>
+    <t>Сем. связь: QNT</t>
+  </si>
+  <si>
+    <t>Словарь: Канцеляризмы</t>
+  </si>
+  <si>
+    <t>Сем. роль: критерий_оценки</t>
   </si>
   <si>
     <t>Сем. роль: комитатив</t>
   </si>
   <si>
-    <t>Сем. роль: субъект</t>
-  </si>
-  <si>
-    <t>Средняя глубина синтаксического дерева</t>
-  </si>
-  <si>
-    <t>Доля прописных символов</t>
-  </si>
-  <si>
-    <t>Сем. роль: локатив</t>
+    <t>Словарь: Лексика сопротивления</t>
+  </si>
+  <si>
+    <t>Сем. связь: TMP</t>
+  </si>
+  <si>
+    <t>Словарь: Национальные отношения</t>
+  </si>
+  <si>
+    <t>Сем. связь: SIT</t>
+  </si>
+  <si>
+    <t>Сем. роль: посес_субъект-отправитель</t>
+  </si>
+  <si>
+    <t>Сем. роль: ликвидатив</t>
+  </si>
+  <si>
+    <t>Сем. связь: CAUS</t>
+  </si>
+  <si>
+    <t>Словарь: Мягкие инвективы</t>
+  </si>
+  <si>
+    <t>Часть речи: междометие</t>
+  </si>
+  <si>
+    <t>Сем. связь: SUR</t>
+  </si>
+  <si>
+    <t>Сем. роль: трансгрессив</t>
+  </si>
+  <si>
+    <t>Сем. роль: критерий_сравнения</t>
+  </si>
+  <si>
+    <t>Доля местоимений 2 лица</t>
+  </si>
+  <si>
+    <t>Словарь: Тематическая_Силовые структуры</t>
+  </si>
+  <si>
+    <t>Словарь: Тематическая_Демография и экология</t>
+  </si>
+  <si>
+    <t>Сем. роль: пациенс</t>
+  </si>
+  <si>
+    <t>Число знаков пунктуации / Число слов</t>
+  </si>
+  <si>
+    <t>Сем. роль: дименсив</t>
+  </si>
+  <si>
+    <t>Сем. роль: потенсив</t>
+  </si>
+  <si>
+    <t>Сем. связь: QLT</t>
+  </si>
+  <si>
+    <t>Сем. связь: FAB</t>
+  </si>
+  <si>
+    <t>Сем. связь: CMP</t>
+  </si>
+  <si>
+    <t>Сем. связь: ABS</t>
+  </si>
+  <si>
+    <t>Сем. роль: предм_пот_мод_оценки</t>
+  </si>
+  <si>
+    <t>Сем. роль: партитив</t>
+  </si>
+  <si>
+    <t>Сем. роль: объект_орудие</t>
+  </si>
+  <si>
+    <t>Сем. роль: объект_колич</t>
+  </si>
+  <si>
+    <t>Сем. роль: интерпрет_понятия</t>
+  </si>
+  <si>
+    <t>Сем. роль: интенсив</t>
+  </si>
+  <si>
+    <t>Часть речи: часть композита - сложного слова</t>
+  </si>
+  <si>
+    <t>Сем. роль: агенс</t>
+  </si>
+  <si>
+    <t>Словарь: Отрицательные стеничные эмоции</t>
+  </si>
+  <si>
+    <t>Словарь: Тематическая_Преступность</t>
+  </si>
+  <si>
+    <t>Сем. роль: квантитатив</t>
+  </si>
+  <si>
+    <t>Сем. связь: POT</t>
+  </si>
+  <si>
+    <t>Сем. роль: результат_соединения</t>
+  </si>
+  <si>
+    <t>Средняя длина предложения (в количестве слов)</t>
+  </si>
+  <si>
+    <t>Доля глаголов 2 лица</t>
+  </si>
+  <si>
+    <t>Словарь: Социальное неравенство и несправедливость</t>
+  </si>
+  <si>
+    <t>Доля глаголов прошедшего времени, первого лица, единственного числа</t>
+  </si>
+  <si>
+    <t>Словарь: Тематическая_Власти</t>
+  </si>
+  <si>
+    <t>Сем. связь: ABL</t>
+  </si>
+  <si>
+    <t>Сем. роль: ситуатив</t>
+  </si>
+  <si>
+    <t>Словарь: Лексика социального разобщения</t>
+  </si>
+  <si>
+    <t>Сем. роль: длительность</t>
+  </si>
+  <si>
+    <t>Сем. роль: способ_действия</t>
+  </si>
+  <si>
+    <t>Сем. роль: предмет_срав</t>
+  </si>
+  <si>
+    <t>Сем. роль: владелец_инф</t>
+  </si>
+  <si>
+    <t>Доля глаголов 3 лица</t>
+  </si>
+  <si>
+    <t>Доля глаголов 1 лица</t>
+  </si>
+  <si>
+    <t>Словарь: Прецедентные, архаизмы, междометия и др.</t>
+  </si>
+  <si>
+    <t>Сем. роль: результатив</t>
   </si>
   <si>
     <t>Словарь: Лексика отрицательной рациональной оценки</t>
   </si>
   <si>
-    <t>Сем. роль: абстинатив</t>
-  </si>
-  <si>
-    <t>Сем. связь: CAUS</t>
-  </si>
-  <si>
-    <t>Словарь: Лексика социального разобщения</t>
-  </si>
-  <si>
-    <t>Сем. связь: PTN</t>
-  </si>
-  <si>
-    <t>Сем. связь: DES</t>
-  </si>
-  <si>
-    <t>Коэффициент логической связности</t>
-  </si>
-  <si>
-    <t>Сем. связь: DLB</t>
-  </si>
-  <si>
-    <t>Словарь: Лексика страдания</t>
-  </si>
-  <si>
-    <t>Сем. роль: авторизатор</t>
-  </si>
-  <si>
-    <t>Средняя длина предложения (в количестве слов)</t>
-  </si>
-  <si>
-    <t>Словарь: Национальные отношения</t>
-  </si>
-  <si>
-    <t>Сем. роль: делибератив</t>
-  </si>
-  <si>
-    <t>Словарь: Лексика сопротивления</t>
-  </si>
-  <si>
-    <t>Причастия + деепричастия / Число предложений</t>
-  </si>
-  <si>
-    <t>Словарь: Отрицательные стеничные эмоции</t>
-  </si>
-  <si>
-    <t>Сем. роль: темпоратив</t>
-  </si>
-  <si>
-    <t>Словарь: Инвективы</t>
-  </si>
-  <si>
-    <t>Число клауз</t>
-  </si>
-  <si>
-    <t>Часть речи: наречие</t>
-  </si>
-  <si>
-    <t>Доля местоимений 1 лица мн. числа</t>
-  </si>
-  <si>
-    <t>Словарь: Тематическая_Экономика</t>
-  </si>
-  <si>
-    <t>Сем. роль: адресат</t>
-  </si>
-  <si>
-    <t>Минимальная глубина синтаксического дерева</t>
-  </si>
-  <si>
-    <t>Сем. роль: аблатив</t>
-  </si>
-  <si>
-    <t>Сем. связь: LOC</t>
-  </si>
-  <si>
-    <t>Сем. роль: пациенс</t>
-  </si>
-  <si>
-    <t>Словарь: Компьютерный жаргон</t>
-  </si>
-  <si>
-    <t>Доля глаголов 3 лица</t>
-  </si>
-  <si>
-    <t>Словарь: Тематическая_Преступность</t>
-  </si>
-  <si>
-    <t>Сем. роль: ситуатив</t>
-  </si>
-  <si>
-    <t>Часть речи: междометие</t>
-  </si>
-  <si>
-    <t>Сем. роль: предикат</t>
-  </si>
-  <si>
-    <t>Сем. роль: директив</t>
-  </si>
-  <si>
-    <t>Часть речи: местоименное наречие</t>
-  </si>
-  <si>
-    <t>Словарь: Тематическая_Протест</t>
-  </si>
-  <si>
-    <t>Сем. роль: каузатив</t>
-  </si>
-  <si>
-    <t>Число восклицательных знаков / Число предложений</t>
-  </si>
-  <si>
-    <t>Часть речи: числительное-прилагательное</t>
-  </si>
-  <si>
-    <t>Сем. роль: положение_соц_завис</t>
-  </si>
-  <si>
-    <t>Сем. роль: дестинатив</t>
-  </si>
-  <si>
-    <t>Доля глаголов 2 лица</t>
-  </si>
-  <si>
-    <t>Сем. роль: критерий_оценки</t>
-  </si>
-  <si>
-    <t>Словарь: Канцеляризмы</t>
-  </si>
-  <si>
-    <t>Сем. роль: длительность</t>
-  </si>
-  <si>
-    <t>Словарь: Молодежный жаргон</t>
-  </si>
-  <si>
-    <t>Словарь: Тематическая_Дети и образование</t>
-  </si>
-  <si>
-    <t>Сем. роль: каузат</t>
-  </si>
-  <si>
-    <t>Сем. роль: инструментив</t>
-  </si>
-  <si>
-    <t>Сем. роль: фабрикатив</t>
+    <t>Сем. роль: тематив</t>
+  </si>
+  <si>
+    <t>Сем. связь: TRG</t>
+  </si>
+  <si>
+    <t>Сем. связь: RSN</t>
+  </si>
+  <si>
+    <t>Сем. связь: PRM</t>
+  </si>
+  <si>
+    <t>Сем. связь: PAR</t>
+  </si>
+  <si>
+    <t>Сем. связь: LIQ</t>
+  </si>
+  <si>
+    <t>Сем. связь: LIM</t>
+  </si>
+  <si>
+    <t>Сем. связь: DST</t>
+  </si>
+  <si>
+    <t>Сем. связь: COR</t>
+  </si>
+  <si>
+    <t>Сем. роль: фин_фаз_пол</t>
   </si>
   <si>
     <t>Сем. роль: сурсив</t>
   </si>
   <si>
-    <t>Сем. роль: отпр_пред_соп</t>
-  </si>
-  <si>
-    <t>Сем. роль: каузируемая_ассоциация</t>
+    <t>Сем. роль: субъект_неакт_дейст</t>
+  </si>
+  <si>
+    <t>Сем. роль: соединение</t>
+  </si>
+  <si>
+    <t>Сем. роль: рубрикатив</t>
+  </si>
+  <si>
+    <t>Сем. роль: репродуктив</t>
+  </si>
+  <si>
+    <t>Сем. роль: причинно_врем_обусл</t>
+  </si>
+  <si>
+    <t>Сем. роль: предпредикат</t>
+  </si>
+  <si>
+    <t>Сем. роль: предпосылка</t>
+  </si>
+  <si>
+    <t>Сем. роль: предмет_лок_столк</t>
+  </si>
+  <si>
+    <t>Сем. роль: предм_вст_в_конт_прост_соот</t>
+  </si>
+  <si>
+    <t>Сем. роль: повод_делиберат</t>
+  </si>
+  <si>
+    <t>Сем. роль: параметр</t>
+  </si>
+  <si>
+    <t>Сем. роль: основание_соответствие</t>
+  </si>
+  <si>
+    <t>Сем. роль: основание_квалификации</t>
+  </si>
+  <si>
+    <t>Сем. роль: объект_соучаст</t>
+  </si>
+  <si>
+    <t>Сем. роль: мод_каузатив</t>
+  </si>
+  <si>
+    <t>Сем. роль: лицо_соот</t>
+  </si>
+  <si>
+    <t>Сем. роль: лимитатив</t>
+  </si>
+  <si>
+    <t>Сем. роль: коррелятив</t>
+  </si>
+  <si>
+    <t>Сем. роль: класс_предметов</t>
+  </si>
+  <si>
+    <t>Сем. роль: класс_предм_в_комп_оцен_модели</t>
+  </si>
+  <si>
+    <t>Сем. роль: класс</t>
+  </si>
+  <si>
+    <t>Сем. роль: исходное_явление</t>
+  </si>
+  <si>
+    <t>Сем. роль: источник_кауз_отн</t>
+  </si>
+  <si>
+    <t>Сем. роль: замещенный_предмет</t>
+  </si>
+  <si>
+    <t>Сем. роль: допол_частью_целое</t>
+  </si>
+  <si>
+    <t>Сем. роль: дейст_в_мс_мод</t>
+  </si>
+  <si>
+    <t>Сем. роль: выход_из_соц_завис</t>
+  </si>
+  <si>
+    <t>Сем. роль: высший_предм_иерархии</t>
+  </si>
+  <si>
+    <t>Сем. роль: вступление_в_соц_завис</t>
   </si>
   <si>
     <t>Словарь: Катастрофы</t>
-  </si>
-  <si>
-    <t>Сем. связь: QNT</t>
-  </si>
-  <si>
-    <t>Сем. роль: дистрибутив</t>
-  </si>
-  <si>
-    <t>Число слов</t>
-  </si>
-  <si>
-    <t>Сем. роль: оцениваемое_действие</t>
-  </si>
-  <si>
-    <t>Словарь: Уголовный жаргон</t>
-  </si>
-  <si>
-    <t>Сем. связь: TAR</t>
-  </si>
-  <si>
-    <t>Сем. роль: потенсив</t>
-  </si>
-  <si>
-    <t>Число предложений</t>
-  </si>
-  <si>
-    <t>Сем. роль: способ_действия</t>
-  </si>
-  <si>
-    <t>Сем. связь: COM</t>
-  </si>
-  <si>
-    <t>Словарь: Тематическая_ЖКХ</t>
-  </si>
-  <si>
-    <t>Часть речи: числительное</t>
-  </si>
-  <si>
-    <t>Словарь: Мягкие инвективы</t>
-  </si>
-  <si>
-    <t>Доля глаголов прошедшего времени, первого лица, единственного числа</t>
-  </si>
-  <si>
-    <t>Сем. связь: POS</t>
-  </si>
-  <si>
-    <t>Сем. роль: агенс</t>
-  </si>
-  <si>
-    <t>Сем. связь: TMP</t>
-  </si>
-  <si>
-    <t>Сем. роль: посес_субъект-отправитель</t>
-  </si>
-  <si>
-    <t>Сем. роль: ликвидатив</t>
-  </si>
-  <si>
-    <t>Сем. роль: действие_в_фаз_модиф</t>
-  </si>
-  <si>
-    <t>Сем. роль: генератив</t>
-  </si>
-  <si>
-    <t>Сем. роль: результат_соединения</t>
-  </si>
-  <si>
-    <t>Сем. роль: объектив</t>
-  </si>
-  <si>
-    <t>Число уникальных слов</t>
-  </si>
-  <si>
-    <t>Сем. связь: SIT</t>
-  </si>
-  <si>
-    <t>Сем. связь: ABL</t>
-  </si>
-  <si>
-    <t>Словарь: Тематическая_Демография и экология</t>
-  </si>
-  <si>
-    <t>Сем. роль: каузатор</t>
-  </si>
-  <si>
-    <t>Сем. роль: объект</t>
-  </si>
-  <si>
-    <t>Сем. роль: квантитатив</t>
-  </si>
-  <si>
-    <t>Словарь: Тематическая_Силовые структуры</t>
-  </si>
-  <si>
-    <t>Словарь: Безысключительная и усилительная лексика</t>
-  </si>
-  <si>
-    <t>Сем. связь: INS</t>
-  </si>
-  <si>
-    <t>Словарь: Лексика разрушения и насилия</t>
-  </si>
-  <si>
-    <t>Сем. роль: предм_пот_мод_оценки</t>
-  </si>
-  <si>
-    <t>Сем. роль: объект_колич</t>
-  </si>
-  <si>
-    <t>Сем. роль: критерий_сравнения</t>
-  </si>
-  <si>
-    <t>Сем. роль: интенсив</t>
-  </si>
-  <si>
-    <t>Часть речи: часть композита - сложного слова</t>
-  </si>
-  <si>
-    <t>Сем. связь: SUR</t>
-  </si>
-  <si>
-    <t>Сем. связь: QLT</t>
-  </si>
-  <si>
-    <t>Сем. связь: FAB</t>
-  </si>
-  <si>
-    <t>Сем. связь: CMP</t>
-  </si>
-  <si>
-    <t>Сем. связь: ABS</t>
-  </si>
-  <si>
-    <t>Сем. роль: трансгрессив</t>
-  </si>
-  <si>
-    <t>Сем. роль: партитив</t>
-  </si>
-  <si>
-    <t>Сем. роль: объект_орудие</t>
-  </si>
-  <si>
-    <t>Сем. роль: интерпрет_понятия</t>
-  </si>
-  <si>
-    <t>Сем. роль: тематив</t>
-  </si>
-  <si>
-    <t>Словарь: Прецедентные, архаизмы, междометия и др.</t>
-  </si>
-  <si>
-    <t>Сем. роль: посессив</t>
-  </si>
-  <si>
-    <t>Сем. роль: транзитив</t>
-  </si>
-  <si>
-    <t>Сем. связь: ADR</t>
-  </si>
-  <si>
-    <t>Число символов</t>
-  </si>
-  <si>
-    <t>Сем. связь: DIS</t>
-  </si>
-  <si>
-    <t>Доля глаголов 1 лица</t>
-  </si>
-  <si>
-    <t>Сем. связь: GEN</t>
-  </si>
-  <si>
-    <t>Сем. связь: DIR</t>
-  </si>
-  <si>
-    <t>Число знаков пунктуации / Число слов</t>
-  </si>
-  <si>
-    <t>Сем. связь: EQ</t>
-  </si>
-  <si>
-    <t>Словарь: Лексика положительной эмоциональной оценки</t>
-  </si>
-  <si>
-    <t>Сем. связь: OBJ</t>
-  </si>
-  <si>
-    <t>Словарь: Социальное неравенство и несправедливость</t>
-  </si>
-  <si>
-    <t>Словарь: Тематическая_Здравоохранение</t>
-  </si>
-  <si>
-    <t>Сем. связь: TRA</t>
-  </si>
-  <si>
-    <t>Сем. роль: эстиматив</t>
-  </si>
-  <si>
-    <t>Сем. роль: отсут_признак</t>
-  </si>
-  <si>
-    <t>Сем. связь: MED</t>
-  </si>
-  <si>
-    <t>Сем. роль: дименсив</t>
-  </si>
-  <si>
-    <t>Сем. роль: донор</t>
-  </si>
-  <si>
-    <t>Сем. роль: квалитатив</t>
-  </si>
-  <si>
-    <t>Часть речи: местоимение-прилагательное</t>
-  </si>
-  <si>
-    <t>Сем. роль: владелец_инф</t>
-  </si>
-  <si>
-    <t>Сем. роль: субъект_соучаст</t>
-  </si>
-  <si>
-    <t>Сем. связь: POT</t>
-  </si>
-  <si>
-    <t>Сем. роль: предмет_обмена</t>
-  </si>
-  <si>
-    <t>Сем. роль: медиатив</t>
-  </si>
-  <si>
-    <t>Сем. роль: социальная_категория</t>
-  </si>
-  <si>
-    <t>Сем. роль: деструктив</t>
-  </si>
-  <si>
-    <t>Число знаков препинания</t>
-  </si>
-  <si>
-    <t>Сем. роль: результатив</t>
-  </si>
-  <si>
-    <t>Словарь: Тематическая_Власти</t>
-  </si>
-  <si>
-    <t>Доля местоимений 2 лица</t>
-  </si>
-  <si>
-    <t>Сем. роль: предмет_срав</t>
-  </si>
-  <si>
-    <t>Сем. связь: TRG</t>
-  </si>
-  <si>
-    <t>Сем. связь: RSN</t>
-  </si>
-  <si>
-    <t>Сем. связь: PRM</t>
-  </si>
-  <si>
-    <t>Сем. связь: PAR</t>
-  </si>
-  <si>
-    <t>Сем. связь: LIQ</t>
-  </si>
-  <si>
-    <t>Сем. связь: LIM</t>
-  </si>
-  <si>
-    <t>Сем. связь: DST</t>
-  </si>
-  <si>
-    <t>Сем. связь: COR</t>
-  </si>
-  <si>
-    <t>Сем. роль: фин_фаз_пол</t>
-  </si>
-  <si>
-    <t>Сем. роль: субъект_неакт_дейст</t>
-  </si>
-  <si>
-    <t>Сем. роль: соединение</t>
-  </si>
-  <si>
-    <t>Сем. роль: рубрикатив</t>
-  </si>
-  <si>
-    <t>Сем. роль: репродуктив</t>
-  </si>
-  <si>
-    <t>Сем. роль: причинно_врем_обусл</t>
-  </si>
-  <si>
-    <t>Сем. роль: предпредикат</t>
-  </si>
-  <si>
-    <t>Сем. роль: предпосылка</t>
-  </si>
-  <si>
-    <t>Сем. роль: предмет_лок_столк</t>
-  </si>
-  <si>
-    <t>Сем. роль: предм_вст_в_конт_прост_соот</t>
-  </si>
-  <si>
-    <t>Сем. роль: повод_делиберат</t>
-  </si>
-  <si>
-    <t>Сем. роль: параметр</t>
-  </si>
-  <si>
-    <t>Сем. роль: основание_соответствие</t>
-  </si>
-  <si>
-    <t>Сем. роль: основание_квалификации</t>
-  </si>
-  <si>
-    <t>Сем. роль: объект_соучаст</t>
-  </si>
-  <si>
-    <t>Сем. роль: мод_каузатив</t>
-  </si>
-  <si>
-    <t>Сем. роль: лицо_соот</t>
-  </si>
-  <si>
-    <t>Сем. роль: лимитатив</t>
-  </si>
-  <si>
-    <t>Сем. роль: коррелятив</t>
-  </si>
-  <si>
-    <t>Сем. роль: класс_предметов</t>
-  </si>
-  <si>
-    <t>Сем. роль: класс_предм_в_комп_оцен_модели</t>
-  </si>
-  <si>
-    <t>Сем. роль: класс</t>
-  </si>
-  <si>
-    <t>Сем. роль: исходное_явление</t>
-  </si>
-  <si>
-    <t>Сем. роль: источник_кауз_отн</t>
-  </si>
-  <si>
-    <t>Сем. роль: замещенный_предмет</t>
-  </si>
-  <si>
-    <t>Сем. роль: допол_частью_целое</t>
-  </si>
-  <si>
-    <t>Сем. роль: дейст_в_мс_мод</t>
-  </si>
-  <si>
-    <t>Сем. роль: выход_из_соц_завис</t>
-  </si>
-  <si>
-    <t>Сем. роль: высший_предм_иерархии</t>
-  </si>
-  <si>
-    <t>Сем. роль: вступление_в_соц_завис</t>
   </si>
   <si>
     <t>Словарь: Обсценная лексика</t>
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1068,10 +1068,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1090,10 +1090,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1123,10 +1123,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1134,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1167,10 +1167,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1178,10 +1178,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1189,10 +1189,10 @@
         <v>17</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>-1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1266,7 +1266,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1288,7 +1288,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1321,10 +1321,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1453,7 +1453,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1948,10 +1948,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
